--- a/Data/Namesheet.xlsx
+++ b/Data/Namesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoyo8\Desktop\QRcode\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF275EB-15B7-436C-B7E6-D4663F0BFCD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF142F-1451-446C-8041-CB46BF3A5915}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B1924AF-8037-419F-841B-85A281DBE70E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Ibrahim Cox</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Ahmad Felemban</t>
   </si>
 </sst>
 </file>
@@ -517,9 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1D8EAA-6D99-4B0B-9181-35F0A389CC20}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -706,6 +711,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="37" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
